--- a/notebooks/data/dados.xlsx
+++ b/notebooks/data/dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Documents\GitHub\22-2b-cd-p1-grupo_joaoogp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87529DFC-5143-4237-AA8A-2C467DA4052C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F51F05-A453-4CB1-883F-F034C5C47115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="10524" windowHeight="7860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8015" uniqueCount="5893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8012" uniqueCount="5890">
   <si>
     <t>Categoria</t>
   </si>
@@ -17704,15 +17704,6 @@
   </si>
   <si>
     <t>18/08/2022 15:51</t>
-  </si>
-  <si>
-    <t>negativa</t>
-  </si>
-  <si>
-    <t>positiva</t>
-  </si>
-  <si>
-    <t>neutra</t>
   </si>
 </sst>
 </file>
@@ -17779,14 +17770,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -18127,13 +18116,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18152,17 +18141,8 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>5890</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>5892</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>5891</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -18181,17 +18161,8 @@
       <c r="F2">
         <v>2</v>
       </c>
-      <c r="I2" s="4">
-        <v>0</v>
-      </c>
-      <c r="J2" s="4">
-        <v>1</v>
-      </c>
-      <c r="K2" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -18211,7 +18182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -18231,7 +18202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -18251,7 +18222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -18271,7 +18242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -18291,7 +18262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -18311,7 +18282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -18331,7 +18302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -18351,7 +18322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -18371,7 +18342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -18391,7 +18362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -18411,7 +18382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -18431,7 +18402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -18451,7 +18422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -34271,7 +34242,6 @@
       <c r="F806">
         <v>1</v>
       </c>
-      <c r="I806" s="3"/>
     </row>
     <row r="807" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A807" t="s">
@@ -42183,7 +42153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H801"/>
   <sheetViews>
-    <sheetView topLeftCell="A574" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A578" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G583" sqref="G583"/>
     </sheetView>
   </sheetViews>
@@ -53710,7 +53680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>6</v>
       </c>
@@ -53730,7 +53700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>6</v>
       </c>
@@ -53750,7 +53720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>6</v>
       </c>
@@ -53770,7 +53740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>6</v>
       </c>
@@ -53790,7 +53760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>6</v>
       </c>
@@ -53810,7 +53780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>6</v>
       </c>
@@ -53830,7 +53800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>6</v>
       </c>
@@ -53849,8 +53819,9 @@
       <c r="F583">
         <v>2</v>
       </c>
-    </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G583" s="2"/>
+    </row>
+    <row r="584" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>6</v>
       </c>
@@ -53870,7 +53841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>6</v>
       </c>
@@ -53890,7 +53861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>6</v>
       </c>
@@ -53910,7 +53881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>6</v>
       </c>
@@ -53930,7 +53901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>6</v>
       </c>
@@ -53950,7 +53921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>6</v>
       </c>
@@ -53970,7 +53941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>6</v>
       </c>
@@ -53990,7 +53961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>6</v>
       </c>
@@ -54010,7 +53981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>6</v>
       </c>
